--- a/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -391,9 +391,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
     <t>Rev: new map of Europe</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
   </si>
   <si>
     <t>1€</t>
-  </si>
-  <si>
-    <t>Bi-Metallic</t>
   </si>
   <si>
     <t>2€</t>
@@ -705,6 +696,15 @@
   </si>
   <si>
     <t>98.375</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1134</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1142</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1144</t>
   </si>
 </sst>
 </file>
@@ -952,6 +952,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,136 +967,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1206,9 +1086,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="26"/>
-    <tableColumn id="2" name="Link" dataDxfId="25" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="24"/>
+    <tableColumn id="1" name="№" dataDxfId="11"/>
+    <tableColumn id="2" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1483,13 +1363,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -1498,27 +1378,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1526,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1538,14 +1418,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1561,14 +1441,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="28" t="s">
-        <v>37</v>
+      <c r="E4" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -1584,14 +1464,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1606,14 +1486,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1628,14 +1508,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1650,14 +1530,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1672,14 +1552,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1694,14 +1574,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1716,14 +1596,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1738,14 +1618,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1760,14 +1640,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1782,14 +1662,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="28" t="s">
-        <v>47</v>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1804,14 +1684,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="28" t="s">
-        <v>48</v>
+      <c r="E15" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1826,14 +1706,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1848,14 +1728,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1870,14 +1750,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1892,14 +1772,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="28" t="s">
-        <v>51</v>
+      <c r="E19" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1914,10 +1794,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
@@ -1934,7 +1814,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1964,13 +1844,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="2" sqref="E19 E14 E4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -1979,27 +1859,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2007,10 +1887,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2019,14 +1899,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2042,14 +1922,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="28" t="s">
-        <v>37</v>
+      <c r="E4" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2065,14 +1945,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2087,14 +1967,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2109,14 +1989,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2131,14 +2011,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2153,14 +2033,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2175,14 +2055,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2197,14 +2077,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2219,14 +2099,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2241,14 +2121,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2263,14 +2143,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="28" t="s">
-        <v>47</v>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -2285,14 +2165,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2307,14 +2187,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2329,14 +2209,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2351,14 +2231,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2373,14 +2253,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="28" t="s">
-        <v>51</v>
+      <c r="E19" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2395,10 +2275,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
@@ -2415,7 +2295,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2445,13 +2325,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21:G22"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -2460,27 +2340,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2488,10 +2368,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2500,14 +2380,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -2523,14 +2403,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="28" t="s">
-        <v>37</v>
+      <c r="E4" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2546,14 +2426,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2568,14 +2448,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2590,14 +2470,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2612,14 +2492,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2634,14 +2514,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2656,14 +2536,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2678,14 +2558,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2700,14 +2580,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2722,14 +2602,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2744,14 +2624,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="28" t="s">
-        <v>47</v>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -2766,14 +2646,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="28" t="s">
-        <v>73</v>
+      <c r="E15" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -2788,14 +2668,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="28" t="s">
-        <v>74</v>
+      <c r="E16" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2810,14 +2690,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2832,14 +2712,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2854,14 +2734,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2876,10 +2756,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
@@ -2896,7 +2776,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2920,19 +2800,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="1" sqref="E11:E16 E8"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -2940,28 +2820,28 @@
     <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2969,28 +2849,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
+      <c r="B3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -2999,23 +2879,22 @@
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
+      <c r="B4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3024,23 +2903,22 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3050,21 +2928,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
+      <c r="B6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3074,21 +2952,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3098,21 +2976,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>80</v>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3122,21 +3000,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>35</v>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3146,21 +3024,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3170,21 +3048,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>47</v>
+      <c r="B11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3194,21 +3072,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>47</v>
+      <c r="B12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3218,21 +3096,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>47</v>
+      <c r="B13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3242,21 +3120,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>47</v>
+      <c r="B14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3266,21 +3144,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>73</v>
+      <c r="B15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3290,21 +3168,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>74</v>
+      <c r="B16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3318,17 +3196,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>35</v>
+      <c r="B17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3342,17 +3220,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
+      <c r="B18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3366,17 +3244,17 @@
       <c r="A19" s="10">
         <v>2018</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>35</v>
+      <c r="B19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3390,14 +3268,14 @@
       <c r="A20" s="10">
         <v>2019</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>35</v>
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1"/>
@@ -3413,7 +3291,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3443,13 +3321,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="1" sqref="E13:E15 E8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -3458,27 +3336,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3486,10 +3364,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3497,17 +3375,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
+      <c r="B3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3522,17 +3400,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
+      <c r="B4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3547,17 +3425,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3571,17 +3449,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
+      <c r="B6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3595,17 +3473,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -3619,17 +3497,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>80</v>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3643,17 +3521,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>35</v>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3667,17 +3545,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -3691,17 +3569,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
+      <c r="B11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3715,17 +3593,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
+      <c r="B12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3739,17 +3617,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>47</v>
+      <c r="B13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3763,17 +3641,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>47</v>
+      <c r="B14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3787,17 +3665,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>73</v>
+      <c r="B15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3811,17 +3689,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>35</v>
+      <c r="B16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3835,17 +3713,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>35</v>
+      <c r="B17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3859,17 +3737,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
+      <c r="B18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3883,17 +3761,17 @@
       <c r="A19" s="10">
         <v>2018</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>35</v>
+      <c r="B19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3907,14 +3785,14 @@
       <c r="A20" s="10">
         <v>2019</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>35</v>
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1"/>
@@ -3930,7 +3808,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3960,13 +3838,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="5" sqref="E19 E15 E14 E13 E12 E8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -3975,27 +3853,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4003,10 +3881,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4014,17 +3892,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
+      <c r="B3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -4039,17 +3917,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
+      <c r="B4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4064,17 +3942,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4088,17 +3966,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
+      <c r="B6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4112,17 +3990,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4136,17 +4014,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>80</v>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4160,17 +4038,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>35</v>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4184,17 +4062,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4208,17 +4086,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
+      <c r="B11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4232,17 +4110,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>47</v>
+      <c r="B12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4256,17 +4134,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>47</v>
+      <c r="B13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4280,17 +4158,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>47</v>
+      <c r="B14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4304,17 +4182,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>73</v>
+      <c r="B15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4328,17 +4206,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>35</v>
+      <c r="B16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4352,17 +4230,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>35</v>
+      <c r="B17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4376,17 +4254,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
+      <c r="B18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -4400,17 +4278,17 @@
       <c r="A19" s="10">
         <v>2018</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>51</v>
+      <c r="B19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -4424,14 +4302,14 @@
       <c r="A20" s="10">
         <v>2019</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>35</v>
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1"/>
@@ -4447,7 +4325,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4473,17 +4351,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -4492,27 +4370,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -4520,10 +4398,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4532,16 +4410,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4557,16 +4435,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4583,16 +4461,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4607,16 +4485,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4631,16 +4509,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4655,16 +4533,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4679,16 +4557,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4703,16 +4581,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4724,16 +4602,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4748,16 +4626,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4772,16 +4650,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4796,16 +4674,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4820,16 +4698,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4844,16 +4722,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4868,16 +4746,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4892,16 +4770,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4916,16 +4794,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4940,16 +4818,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4964,13 +4842,13 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="1"/>
@@ -4986,7 +4864,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F9 F11:F21">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5003,7 +4881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5029,17 +4907,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -5048,27 +4926,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
@@ -5076,10 +4954,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5088,16 +4966,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -5113,16 +4991,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5139,16 +5017,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5163,16 +5041,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5187,16 +5065,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5211,16 +5089,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -5235,16 +5113,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -5259,16 +5137,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -5283,16 +5161,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -5307,16 +5185,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -5331,16 +5209,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -5355,16 +5233,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -5379,16 +5257,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5403,16 +5281,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -5427,16 +5305,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -5451,16 +5329,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -5475,16 +5353,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -5499,13 +5377,13 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1"/>
@@ -5521,7 +5399,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5563,13 +5441,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5577,10 +5455,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5588,10 +5466,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5599,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5610,10 +5488,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5621,10 +5499,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5632,10 +5510,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B280AD33-EADC-4CA3-B945-429F951CEEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="120">
   <si>
     <t>-</t>
   </si>
@@ -705,13 +706,37 @@
   </si>
   <si>
     <t>Obv: The royal seal of 1144</t>
+  </si>
+  <si>
+    <t>15.500</t>
+  </si>
+  <si>
+    <t>50.025.500</t>
+  </si>
+  <si>
+    <t>25.500</t>
+  </si>
+  <si>
+    <t>30.025.500</t>
+  </si>
+  <si>
+    <t>20.025.500</t>
+  </si>
+  <si>
+    <t>10.025.500</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>4.028.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -767,6 +792,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -971,9 +1000,89 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1055,6 +1164,78 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1079,16 +1260,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="11"/>
-    <tableColumn id="2" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="20" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1356,28 +1537,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1577,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -1413,7 +1594,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -1436,7 +1617,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -1459,7 +1640,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -1481,7 +1662,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -1503,7 +1684,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -1525,7 +1706,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -1547,7 +1728,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -1569,7 +1750,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -1591,7 +1772,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -1613,7 +1794,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -1635,7 +1816,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -1657,7 +1838,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -1679,7 +1860,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -1701,7 +1882,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -1723,7 +1904,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -1745,7 +1926,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -1767,7 +1948,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -1789,7 +1970,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -1800,10 +1981,36 @@
         <v>32</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1814,11 +2021,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1837,28 +2061,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -1877,7 +2101,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -1894,7 +2118,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -1917,7 +2141,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -1940,7 +2164,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -1962,7 +2186,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -1984,7 +2208,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2006,7 +2230,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2028,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2050,7 +2274,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2072,7 +2296,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2094,7 +2318,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2116,7 +2340,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2138,7 +2362,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2160,7 +2384,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2182,7 +2406,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2204,7 +2428,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2226,7 +2450,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2248,7 +2472,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2270,7 +2494,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2281,10 +2505,36 @@
         <v>32</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2294,12 +2544,30 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2318,28 +2586,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2358,7 +2626,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -2375,7 +2643,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2398,7 +2666,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2421,7 +2689,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2443,7 +2711,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2465,7 +2733,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2487,7 +2755,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2509,7 +2777,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2531,7 +2799,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2553,7 +2821,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2575,7 +2843,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2597,7 +2865,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2619,7 +2887,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2641,7 +2909,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2663,7 +2931,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2685,7 +2953,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2707,7 +2975,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2729,7 +2997,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2751,7 +3019,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2762,10 +3030,36 @@
         <v>32</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2776,11 +3070,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2799,28 +3110,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +3150,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -2856,7 +3167,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2880,7 +3191,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2904,7 +3215,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2928,7 +3239,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2952,7 +3263,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2976,7 +3287,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -3000,7 +3311,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -3024,7 +3335,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3048,7 +3359,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3072,7 +3383,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3096,7 +3407,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3120,7 +3431,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -3144,7 +3455,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3168,7 +3479,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -3192,7 +3503,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -3216,7 +3527,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -3240,7 +3551,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3264,7 +3575,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3277,10 +3588,38 @@
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3291,11 +3630,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3314,28 +3670,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -3354,7 +3710,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -3371,7 +3727,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3396,7 +3752,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3421,7 +3777,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3445,7 +3801,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -3469,7 +3825,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -3493,7 +3849,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -3517,7 +3873,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -3541,7 +3897,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3565,7 +3921,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3589,7 +3945,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3613,7 +3969,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3637,7 +3993,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -3661,7 +4017,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3685,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -3709,7 +4065,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -3733,7 +4089,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -3757,7 +4113,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3781,7 +4137,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3794,10 +4150,38 @@
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3808,11 +4192,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3831,28 +4232,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -3871,7 +4272,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -3888,7 +4289,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3913,7 +4314,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3938,7 +4339,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3962,7 +4363,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -3986,7 +4387,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4010,7 +4411,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4034,7 +4435,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4058,7 +4459,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4082,7 +4483,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -4106,7 +4507,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -4130,7 +4531,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -4154,7 +4555,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4178,7 +4579,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4202,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4226,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4250,7 +4651,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4274,7 +4675,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4298,7 +4699,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4311,10 +4712,38 @@
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4325,11 +4754,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4348,28 +4794,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -4388,7 +4834,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -4405,7 +4851,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4430,7 +4876,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -4456,7 +4902,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -4480,7 +4926,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4504,7 +4950,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4528,7 +4974,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4552,7 +4998,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4576,7 +5022,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
@@ -4597,7 +5043,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
@@ -4621,7 +5067,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
@@ -4645,7 +5091,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
@@ -4669,7 +5115,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
@@ -4685,7 +5131,7 @@
       <c r="E14" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="str">
@@ -4693,7 +5139,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
@@ -4709,7 +5155,7 @@
       <c r="E15" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="str">
@@ -4717,7 +5163,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
@@ -4741,7 +5187,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
@@ -4765,7 +5211,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
@@ -4789,7 +5235,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
@@ -4813,7 +5259,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
@@ -4837,7 +5283,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
@@ -4850,10 +5296,38 @@
       <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4863,12 +5337,63 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F9 F11:F21">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F9 F11:F13 F16:F21">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F9 F11:F21">
+  <conditionalFormatting sqref="F3:F9 F11:F13 F16:F21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4880,12 +5405,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4904,28 +5429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -4944,7 +5469,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -4961,7 +5486,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4986,7 +5511,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -5012,7 +5537,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -5036,7 +5561,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -5060,7 +5585,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -5084,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -5108,7 +5633,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -5132,7 +5657,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -5156,7 +5681,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -5180,7 +5705,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -5204,7 +5729,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -5228,7 +5753,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -5252,7 +5777,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -5276,7 +5801,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -5300,7 +5825,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -5324,7 +5849,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -5348,7 +5873,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -5372,7 +5897,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -5385,10 +5910,38 @@
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5398,12 +5951,30 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5422,7 +5993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5432,14 +6003,14 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -5450,7 +6021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -5461,7 +6032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -5472,7 +6043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -5483,7 +6054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -5494,7 +6065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -5505,7 +6076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -5518,12 +6089,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Portugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B280AD33-EADC-4CA3-B945-429F951CEEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9766CCF-F319-42BB-9E32-035D67071259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="138">
   <si>
     <t>-</t>
   </si>
@@ -730,12 +739,69 @@
   </si>
   <si>
     <t>4.028.000</t>
+  </si>
+  <si>
+    <t>МД</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>15.015.000</t>
+  </si>
+  <si>
+    <t>10.015.000</t>
+  </si>
+  <si>
+    <t>20.015.000</t>
+  </si>
+  <si>
+    <t>17.500</t>
+  </si>
+  <si>
+    <t>25.000</t>
+  </si>
+  <si>
+    <t>28.000</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1145</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1146</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1147</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1143</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1135</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1136</t>
+  </si>
+  <si>
+    <t>Obv: The royal seal of 1137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,7 +986,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,13 +1062,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1164,78 +1263,6 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1267,9 +1294,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="20" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1538,27 +1565,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1604,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -1594,7 +1621,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -1617,7 +1644,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -1640,7 +1667,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -1662,7 +1689,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -1684,7 +1711,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -1706,7 +1733,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -1728,7 +1755,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -1750,7 +1777,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -1772,7 +1799,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -1794,7 +1821,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -1816,7 +1843,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -1838,7 +1865,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -1860,7 +1887,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -1882,7 +1909,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -1904,7 +1931,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -1926,7 +1953,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -1948,7 +1975,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -1970,7 +1997,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -1992,7 +2019,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -2003,7 +2030,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2011,6 +2038,72 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2020,8 +2113,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2037,12 +2131,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21:F24">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21:F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2062,27 +2156,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2195,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -2118,7 +2212,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2141,7 +2235,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2164,7 +2258,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2186,7 +2280,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2208,7 +2302,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2230,7 +2324,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2252,7 +2346,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2274,7 +2368,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2296,7 +2390,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2318,7 +2412,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2340,7 +2434,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2362,7 +2456,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2384,7 +2478,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2406,7 +2500,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2428,7 +2522,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2450,7 +2544,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2472,7 +2566,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2494,7 +2588,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2516,7 +2610,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -2534,7 +2628,73 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G21:G22" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2545,12 +2705,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2562,12 +2722,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2587,27 +2747,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2786,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -2643,7 +2803,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2666,7 +2826,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2689,7 +2849,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2711,7 +2871,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2733,7 +2893,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2755,7 +2915,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2777,7 +2937,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2799,7 +2959,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2821,7 +2981,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2843,7 +3003,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2865,7 +3025,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2887,7 +3047,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2909,7 +3069,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2931,7 +3091,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2953,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2975,7 +3135,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2997,7 +3157,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3019,7 +3179,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3041,7 +3201,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -3061,6 +3221,119 @@
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="L22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K23">
+        <v>2021</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K24">
+        <v>2022</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>2023</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3069,13 +3342,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3086,12 +3360,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23:F24">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3111,27 +3402,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3441,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -3167,7 +3458,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3191,7 +3482,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3215,7 +3506,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3239,7 +3530,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -3263,7 +3554,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -3287,7 +3578,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -3311,7 +3602,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -3335,7 +3626,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3359,7 +3650,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3383,7 +3674,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3407,7 +3698,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3431,7 +3722,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -3455,7 +3746,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3479,7 +3770,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -3503,7 +3794,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -3527,7 +3818,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -3551,7 +3842,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3575,7 +3866,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3599,7 +3890,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -3621,6 +3912,141 @@
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G23" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ref="G24" si="3">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="K24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>2021</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>2022</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>2023</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" t="s">
+        <v>129</v>
+      </c>
+      <c r="N27" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3629,13 +4055,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3646,12 +4073,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21:F22 F24">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21:F22 F24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3671,27 +4115,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="J21:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -3710,7 +4154,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -3727,7 +4171,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3752,7 +4196,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3777,7 +4221,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3801,7 +4245,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -3825,7 +4269,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -3849,7 +4293,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -3873,7 +4317,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -3897,7 +4341,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -3921,7 +4365,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -3945,7 +4389,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -3969,7 +4413,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -3993,7 +4437,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4017,7 +4461,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4041,7 +4485,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4065,7 +4509,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4089,7 +4533,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4113,7 +4557,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4137,7 +4581,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4161,7 +4605,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -4182,6 +4626,78 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4191,13 +4707,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4208,12 +4725,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23:F24">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4233,27 +4767,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="K26:Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -4272,7 +4806,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -4289,7 +4823,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4314,7 +4848,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -4339,7 +4873,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -4363,7 +4897,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4387,7 +4921,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4411,7 +4945,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4435,7 +4969,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4459,7 +4993,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4483,7 +5017,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -4507,7 +5041,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -4531,7 +5065,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -4555,7 +5089,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4579,7 +5113,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4603,7 +5137,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4627,7 +5161,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4651,7 +5185,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4675,7 +5209,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4699,7 +5233,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4723,7 +5257,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -4746,6 +5280,81 @@
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4753,13 +5362,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4770,12 +5380,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23:F24">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4795,27 +5422,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25:S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -4834,7 +5461,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -4851,7 +5478,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4876,7 +5503,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -4902,7 +5529,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -4926,7 +5553,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4950,7 +5577,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4974,7 +5601,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4998,7 +5625,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -5022,7 +5649,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
@@ -5043,7 +5670,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
@@ -5067,7 +5694,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
@@ -5091,7 +5718,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
@@ -5115,7 +5742,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
@@ -5139,7 +5766,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
@@ -5163,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
@@ -5187,7 +5814,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
@@ -5211,7 +5838,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
@@ -5235,7 +5862,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
@@ -5259,7 +5886,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
@@ -5283,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
@@ -5307,7 +5934,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2020</v>
       </c>
@@ -5328,6 +5955,78 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ref="G22" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G25" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5337,8 +6036,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F9 F11:F13 F16:F21">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5355,7 +6055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5372,7 +6072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5405,12 +6105,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F22:F25">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F22:F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5430,27 +6130,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G18:G19"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="H28:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +6169,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
@@ -5486,7 +6186,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -5511,7 +6211,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -5537,7 +6237,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -5561,7 +6261,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -5585,7 +6285,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -5609,7 +6309,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -5633,7 +6333,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -5657,7 +6357,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -5681,7 +6381,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -5705,7 +6405,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -5729,7 +6429,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -5753,7 +6453,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -5777,7 +6477,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -5801,7 +6501,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -5825,7 +6525,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -5849,7 +6549,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -5873,7 +6573,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -5897,7 +6597,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -5921,7 +6621,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -5941,9 +6641,84 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+        <f t="shared" ref="G21:G22" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5952,12 +6727,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5969,12 +6744,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6003,14 +6778,14 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -6021,7 +6796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -6032,7 +6807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -6043,7 +6818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -6054,7 +6829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -6065,7 +6840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -6076,7 +6851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9766CCF-F319-42BB-9E32-035D67071259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C44FD-1943-4C4C-B10C-20E38B31A1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="1400" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,15 +378,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="134">
   <si>
     <t>-</t>
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Type</t>
@@ -741,18 +738,6 @@
     <t>4.028.000</t>
   </si>
   <si>
-    <t>МД</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
     <t>15.000</t>
   </si>
   <si>
@@ -793,6 +778,9 @@
   </si>
   <si>
     <t>Obv: The royal seal of 1137</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1050,6 +1038,7 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,7 +1051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1070,6 +1058,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1254,15 +1251,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1294,9 +1282,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1567,11 +1555,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1586,38 +1574,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1626,14 +1614,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1649,14 +1637,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -1672,14 +1660,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1694,14 +1682,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1716,14 +1704,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1738,14 +1726,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1760,14 +1748,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1782,14 +1770,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1804,14 +1792,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1826,14 +1814,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1848,14 +1836,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1870,14 +1858,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1892,14 +1880,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1914,14 +1902,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1936,14 +1924,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1958,14 +1946,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1980,14 +1968,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2002,14 +1990,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2024,14 +2012,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2046,14 +2034,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2068,14 +2056,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2090,14 +2078,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2115,7 +2103,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2132,7 +2120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2162,7 +2150,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22:M25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2177,38 +2165,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2217,14 +2205,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2240,14 +2228,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2263,14 +2251,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2285,14 +2273,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2307,14 +2295,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2329,14 +2317,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2351,14 +2339,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2373,14 +2361,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2395,14 +2383,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2417,14 +2405,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2439,14 +2427,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2461,14 +2449,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -2483,14 +2471,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2505,14 +2493,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2527,14 +2515,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2549,14 +2537,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2571,14 +2559,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2593,14 +2581,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2615,14 +2603,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2637,14 +2625,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2659,14 +2647,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2681,14 +2669,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2706,7 +2694,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2723,11 +2711,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2747,13 +2735,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22:N25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2768,38 +2756,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2808,14 +2796,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -2831,14 +2819,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2854,14 +2842,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2876,14 +2864,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2898,14 +2886,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2920,14 +2908,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2942,14 +2930,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2964,14 +2952,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2986,14 +2974,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3008,14 +2996,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3030,14 +3018,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3052,14 +3040,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3074,14 +3062,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3096,14 +3084,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3113,19 +3101,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3135,19 +3123,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3157,19 +3145,19 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3179,19 +3167,19 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3201,19 +3189,19 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3223,19 +3211,19 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3244,29 +3232,20 @@
         <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="L22" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" t="s">
-        <v>121</v>
-      </c>
-      <c r="N22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3275,32 +3254,20 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K23">
-        <v>2021</v>
-      </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" t="s">
-        <v>124</v>
-      </c>
-      <c r="N23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3309,31 +3276,655 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K24">
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23:F24">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G23" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
         <v>2022</v>
       </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" t="s">
-        <v>129</v>
-      </c>
-      <c r="N24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K25">
+      <c r="B23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
         <v>2023</v>
       </c>
-      <c r="L25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" t="s">
-        <v>129</v>
-      </c>
-      <c r="N25" t="s">
-        <v>129</v>
+      <c r="B24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ref="G24" si="3">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3360,721 +3951,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23:F24">
+  <conditionalFormatting sqref="F21:F22 F24">
     <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24 F21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24:N28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22:G23" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" ref="G24" si="3">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="K24" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J25">
-        <v>2021</v>
-      </c>
-      <c r="K25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" t="s">
-        <v>124</v>
-      </c>
-      <c r="N25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J26">
-        <v>2022</v>
-      </c>
-      <c r="K26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" t="s">
-        <v>129</v>
-      </c>
-      <c r="M26" t="s">
-        <v>129</v>
-      </c>
-      <c r="N26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J27">
-        <v>2023</v>
-      </c>
-      <c r="K27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" t="s">
-        <v>129</v>
-      </c>
-      <c r="M27" t="s">
-        <v>129</v>
-      </c>
-      <c r="N27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22 F24">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4091,7 +3969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4121,7 +3999,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="J21:O24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4136,38 +4014,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4176,16 +4054,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -4201,16 +4079,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4226,16 +4104,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4250,16 +4128,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4274,16 +4152,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4298,16 +4176,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4322,16 +4200,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4346,16 +4224,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -4370,16 +4248,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4394,16 +4272,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4418,16 +4296,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4442,16 +4320,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4466,16 +4344,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4490,16 +4368,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4514,16 +4392,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4538,16 +4416,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4562,16 +4440,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4586,16 +4464,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4610,16 +4488,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4634,16 +4512,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4658,16 +4536,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4682,16 +4560,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -4700,6 +4578,661 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23:F24">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4765,15 +5298,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:S26"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="K26:Q29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4788,18 +5321,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>14</v>
@@ -4807,19 +5340,19 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4831,20 +5364,20 @@
         <v>110</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -4856,13 +5389,13 @@
         <v>110</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4871,6 +5404,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4881,13 +5415,13 @@
         <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4905,13 +5439,13 @@
         <v>110</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4929,13 +5463,13 @@
         <v>110</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4953,15 +5487,15 @@
         <v>110</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -4977,669 +5511,13 @@
         <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S26" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23:F24">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24 F21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25:S35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5654,16 +5532,16 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5675,16 +5553,16 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5699,16 +5577,16 @@
         <v>2010</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5723,16 +5601,16 @@
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5747,16 +5625,16 @@
         <v>2012</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -5771,16 +5649,16 @@
         <v>2013</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5795,16 +5673,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5819,16 +5697,16 @@
         <v>2015</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5843,16 +5721,16 @@
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5867,16 +5745,16 @@
         <v>2017</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5891,16 +5769,16 @@
         <v>2018</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5915,16 +5793,16 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5939,16 +5817,16 @@
         <v>2020</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -5963,16 +5841,16 @@
         <v>2021</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -5987,16 +5865,16 @@
         <v>2022</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6011,16 +5889,16 @@
         <v>2023</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>0</v>
@@ -6038,7 +5916,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F9 F11:F13 F16:F21">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6055,7 +5933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6072,7 +5950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6089,7 +5967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6106,7 +5984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6132,11 +6010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="H28:P31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6151,38 +6029,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -6191,16 +6069,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -6216,16 +6094,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6242,16 +6120,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -6266,16 +6144,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -6290,16 +6168,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6314,16 +6192,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -6338,16 +6216,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -6362,16 +6240,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -6386,16 +6264,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -6410,16 +6288,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -6434,16 +6312,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -6458,16 +6336,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -6482,16 +6360,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -6506,16 +6384,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -6530,16 +6408,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -6554,16 +6432,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -6578,16 +6456,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -6602,16 +6480,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -6626,16 +6504,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -6650,16 +6528,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -6674,16 +6552,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -6698,16 +6576,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6718,7 +6596,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q28" s="29"/>
+      <c r="Q28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6728,7 +6606,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6745,11 +6623,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6787,13 +6665,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6801,10 +6679,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6812,10 +6690,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6823,10 +6701,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6834,10 +6712,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6845,10 +6723,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6856,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C44FD-1943-4C4C-B10C-20E38B31A1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0ACB8-5D32-48D8-9B87-3C38E9407C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1400" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2741,7 +2741,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2806,11 +2806,11 @@
         <v>61</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -3999,7 +3999,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4066,11 +4066,11 @@
         <v>80</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -6014,7 +6014,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6081,11 +6081,11 @@
         <v>103</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="I3" s="5"/>
     </row>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0ACB8-5D32-48D8-9B87-3C38E9407C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A82B3-D0CC-4084-969C-99215951799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="133">
   <si>
     <t>-</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>38.000</t>
-  </si>
-  <si>
-    <t>98.375</t>
   </si>
   <si>
     <t>Obv: The royal seal of 1134</t>
@@ -1059,15 +1056,6 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1251,6 +1239,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1282,9 +1279,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1578,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -1614,7 +1611,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
@@ -1637,7 +1634,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -1660,7 +1657,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -1682,7 +1679,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -1704,7 +1701,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -1726,7 +1723,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>31</v>
@@ -1748,7 +1745,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -1770,7 +1767,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -1792,7 +1789,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -1814,7 +1811,7 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>31</v>
@@ -1836,7 +1833,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
@@ -1858,7 +1855,7 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
@@ -1880,7 +1877,7 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>31</v>
@@ -1902,7 +1899,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>31</v>
@@ -1924,7 +1921,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>31</v>
@@ -1946,7 +1943,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>31</v>
@@ -1968,7 +1965,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>31</v>
@@ -1990,14 +1987,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2012,14 +2009,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2034,14 +2031,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2056,14 +2053,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2078,14 +2075,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2103,7 +2100,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2120,7 +2117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2169,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -2205,7 +2202,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
@@ -2228,7 +2225,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -2251,7 +2248,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -2273,7 +2270,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -2295,7 +2292,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -2317,7 +2314,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>31</v>
@@ -2339,7 +2336,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -2361,7 +2358,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -2383,7 +2380,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -2405,7 +2402,7 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>31</v>
@@ -2427,7 +2424,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
@@ -2449,7 +2446,7 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
@@ -2471,7 +2468,7 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>31</v>
@@ -2493,7 +2490,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>31</v>
@@ -2515,7 +2512,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>31</v>
@@ -2537,7 +2534,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>31</v>
@@ -2559,7 +2556,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>31</v>
@@ -2581,14 +2578,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2603,14 +2600,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2625,14 +2622,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2647,14 +2644,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2669,14 +2666,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2694,7 +2691,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2711,11 +2708,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2760,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -2796,7 +2793,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
@@ -2819,7 +2816,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -2842,7 +2839,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -2864,7 +2861,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -2886,7 +2883,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -2908,7 +2905,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>31</v>
@@ -2930,7 +2927,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -2952,7 +2949,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -2974,7 +2971,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -2996,7 +2993,7 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>31</v>
@@ -3018,7 +3015,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
@@ -3040,7 +3037,7 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
@@ -3062,7 +3059,7 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>31</v>
@@ -3084,7 +3081,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>31</v>
@@ -3106,7 +3103,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>31</v>
@@ -3128,7 +3125,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>31</v>
@@ -3150,7 +3147,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>31</v>
@@ -3172,14 +3169,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3194,14 +3191,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3216,14 +3213,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3238,14 +3235,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3260,14 +3257,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3285,7 +3282,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3302,7 +3299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23:F24">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3319,7 +3316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3346,7 +3343,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
@@ -3368,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -3404,7 +3401,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
@@ -3428,7 +3425,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -3452,7 +3449,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -3476,7 +3473,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -3500,7 +3497,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -3524,7 +3521,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>31</v>
@@ -3548,7 +3545,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -3572,7 +3569,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -3596,7 +3593,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -3620,7 +3617,7 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>31</v>
@@ -3644,7 +3641,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
@@ -3668,7 +3665,7 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
@@ -3692,7 +3689,7 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>31</v>
@@ -3716,7 +3713,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>31</v>
@@ -3740,7 +3737,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>31</v>
@@ -3764,7 +3761,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>31</v>
@@ -3788,7 +3785,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>31</v>
@@ -3812,7 +3809,7 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>31</v>
@@ -3821,7 +3818,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3836,7 +3833,7 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>31</v>
@@ -3845,7 +3842,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3860,7 +3857,7 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>31</v>
@@ -3869,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3884,7 +3881,7 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
@@ -3893,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3908,7 +3905,7 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
@@ -3917,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3935,7 +3932,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3952,7 +3949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22 F24">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3969,7 +3966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4018,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -4054,7 +4051,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
@@ -4079,7 +4076,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -4104,7 +4101,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -4128,7 +4125,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -4152,7 +4149,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -4176,7 +4173,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>31</v>
@@ -4200,7 +4197,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -4224,7 +4221,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -4248,7 +4245,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -4272,7 +4269,7 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>31</v>
@@ -4296,7 +4293,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
@@ -4320,7 +4317,7 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
@@ -4344,7 +4341,7 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>31</v>
@@ -4368,7 +4365,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>31</v>
@@ -4392,7 +4389,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>31</v>
@@ -4416,7 +4413,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>31</v>
@@ -4440,7 +4437,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>31</v>
@@ -4464,7 +4461,7 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>31</v>
@@ -4473,7 +4470,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4488,7 +4485,7 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>31</v>
@@ -4497,7 +4494,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4512,7 +4509,7 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>31</v>
@@ -4521,7 +4518,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4536,7 +4533,7 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
@@ -4545,7 +4542,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4560,7 +4557,7 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
@@ -4569,7 +4566,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -4578,661 +4575,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23:F24">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24 F21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5298,9 +4640,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I25"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
@@ -5325,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -5335,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -5361,7 +4703,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
@@ -5370,14 +4712,14 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -5386,7 +4728,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -5395,7 +4737,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5404,7 +4746,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5412,7 +4753,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -5421,7 +4762,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5436,7 +4777,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -5445,7 +4786,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5460,7 +4801,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -5469,7 +4810,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5484,7 +4825,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>31</v>
@@ -5492,10 +4833,10 @@
       <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -5508,7 +4849,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -5529,10 +4870,10 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -5541,19 +4882,22 @@
         <v>11</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -5562,7 +4906,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5574,10 +4918,10 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>31</v>
@@ -5585,10 +4929,10 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="str">
@@ -5598,10 +4942,10 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
@@ -5609,10 +4953,10 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
@@ -5622,10 +4966,10 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
@@ -5634,7 +4978,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -5646,10 +4990,10 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>31</v>
@@ -5658,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5670,154 +5014,154 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>31</v>
@@ -5825,23 +5169,23 @@
       <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
@@ -5856,16 +5200,16 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" ref="G23:G25" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
@@ -5874,7 +5218,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -5884,29 +5228,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5915,12 +5238,665 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F9 F11:F13 F16:F21">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F9 F11:F13 F16:F21">
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23:F24">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F12 F15:F20">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F12 F15:F20">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5932,13 +5908,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="F13">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5950,28 +5926,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5983,12 +5942,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F25">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+  <conditionalFormatting sqref="F21:F24">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F25">
+  <conditionalFormatting sqref="F21:F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6014,7 +5973,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6033,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -6069,7 +6028,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
@@ -6094,7 +6053,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
@@ -6120,7 +6079,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -6144,7 +6103,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>31</v>
@@ -6168,7 +6127,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -6192,7 +6151,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>31</v>
@@ -6216,7 +6175,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -6240,7 +6199,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -6264,7 +6223,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -6288,7 +6247,7 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>31</v>
@@ -6312,7 +6271,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>31</v>
@@ -6336,7 +6295,7 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
@@ -6360,7 +6319,7 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>31</v>
@@ -6384,7 +6343,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>31</v>
@@ -6408,7 +6367,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>31</v>
@@ -6432,7 +6391,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>31</v>
@@ -6456,7 +6415,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>31</v>
@@ -6480,7 +6439,7 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>31</v>
@@ -6489,7 +6448,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -6504,16 +6463,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -6528,7 +6487,7 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>31</v>
@@ -6537,7 +6496,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -6552,7 +6511,7 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
@@ -6561,7 +6520,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -6576,7 +6535,7 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
@@ -6585,7 +6544,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6606,7 +6565,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6623,11 +6582,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A82B3-D0CC-4084-969C-99215951799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302676D-E0A5-4488-BAE5-BF9C83DDBFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="134">
   <si>
     <t>-</t>
   </si>
@@ -390,12 +400,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -778,6 +782,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -847,6 +860,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -887,7 +902,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -965,13 +980,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,6 +1078,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,20 +1090,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="25">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1239,15 +1291,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1279,9 +1322,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1552,57 +1595,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1611,14 +1653,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1634,14 +1676,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -1657,14 +1699,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1679,14 +1721,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1701,14 +1743,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1723,14 +1765,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1745,14 +1787,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1767,14 +1809,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1789,14 +1831,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1811,14 +1853,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1833,14 +1875,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1855,14 +1897,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1877,14 +1919,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1899,14 +1941,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1921,14 +1963,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1943,14 +1985,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1965,14 +2007,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -1987,14 +2029,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2009,14 +2051,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2031,14 +2073,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2053,14 +2095,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2075,14 +2117,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2093,14 +2135,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2117,7 +2159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2147,53 +2189,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2202,14 +2243,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2225,14 +2266,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2248,14 +2289,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2270,14 +2311,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2292,14 +2333,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2314,14 +2355,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2336,14 +2377,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2358,14 +2399,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2380,14 +2421,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2402,14 +2443,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2424,14 +2465,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2446,14 +2487,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -2468,14 +2509,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2490,14 +2531,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2512,14 +2553,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2534,14 +2575,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2556,14 +2597,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -2578,14 +2619,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -2600,14 +2641,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -2622,14 +2663,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -2644,14 +2685,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -2666,14 +2707,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -2684,14 +2725,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2708,11 +2749,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2738,53 +2779,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2793,14 +2833,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2816,14 +2856,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2839,14 +2879,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2861,14 +2901,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2883,14 +2923,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2905,14 +2945,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2927,14 +2967,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2949,14 +2989,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2971,14 +3011,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2993,14 +3033,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3015,14 +3055,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3037,14 +3077,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3059,14 +3099,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3081,14 +3121,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3103,14 +3143,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3125,14 +3165,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3147,14 +3187,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3169,14 +3209,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3191,14 +3231,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3213,14 +3253,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3235,14 +3275,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -3257,14 +3297,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3275,14 +3315,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3299,7 +3339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23:F24">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3316,7 +3356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3346,53 +3386,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3401,16 +3440,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3425,16 +3464,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3449,16 +3488,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3473,16 +3512,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3497,16 +3536,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3521,16 +3560,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3545,16 +3584,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3569,16 +3608,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3593,16 +3632,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3617,16 +3656,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3641,16 +3680,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3665,16 +3704,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3689,16 +3728,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3713,16 +3752,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3737,16 +3776,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3761,16 +3800,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3785,16 +3824,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3809,16 +3848,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3833,16 +3872,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -3857,16 +3896,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -3881,16 +3920,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3905,16 +3944,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -3925,14 +3964,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3949,7 +3988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22 F24">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3966,7 +4005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3996,53 +4035,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4051,16 +4089,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -4076,16 +4114,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4101,16 +4139,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4125,16 +4163,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4149,16 +4187,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -4173,16 +4211,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4197,16 +4235,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4221,16 +4259,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -4245,16 +4283,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4269,16 +4307,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4293,16 +4331,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4317,16 +4355,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4341,16 +4379,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4365,16 +4403,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4389,16 +4427,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4413,16 +4451,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4437,16 +4475,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4461,16 +4499,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -4485,16 +4523,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -4509,16 +4547,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4533,16 +4571,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -4557,16 +4595,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -4577,14 +4615,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4601,7 +4639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23:F24">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4618,7 +4656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4648,53 +4686,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4703,16 +4740,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -4728,16 +4765,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4753,16 +4790,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4777,16 +4814,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4801,16 +4838,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4825,16 +4862,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4849,16 +4886,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4873,16 +4910,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4897,16 +4934,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4921,16 +4958,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4945,16 +4982,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4969,16 +5006,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4993,16 +5030,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5017,16 +5054,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5041,16 +5078,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5065,16 +5102,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -5089,16 +5126,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -5113,16 +5150,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5137,16 +5174,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -5161,16 +5198,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5185,16 +5222,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -5209,16 +5246,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -5232,14 +5269,14 @@
       <c r="S26" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5256,7 +5293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23:F24">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5273,7 +5310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5303,53 +5340,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5358,16 +5394,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5383,16 +5419,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5409,16 +5445,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5433,16 +5469,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5457,16 +5493,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5481,16 +5517,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5505,16 +5541,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -5529,16 +5565,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5553,16 +5589,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5577,16 +5613,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5601,16 +5637,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -5625,16 +5661,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -5649,16 +5685,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5673,16 +5709,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5697,16 +5733,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -5721,16 +5757,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5745,16 +5781,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5769,16 +5805,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5793,16 +5829,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -5817,16 +5853,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -5841,16 +5877,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -5865,16 +5901,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -5885,14 +5921,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F12 F15:F20">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5909,7 +5945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5926,7 +5962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5943,7 +5979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5969,57 +6005,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -6028,16 +6063,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -6053,16 +6088,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6079,16 +6114,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -6103,16 +6138,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -6127,16 +6162,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6151,16 +6186,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -6175,16 +6210,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -6199,16 +6234,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -6223,16 +6258,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -6247,16 +6282,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -6271,16 +6306,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -6295,16 +6330,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -6319,16 +6354,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -6343,16 +6378,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -6367,16 +6402,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -6391,16 +6426,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -6415,16 +6450,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
@@ -6439,16 +6474,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>0</v>
@@ -6463,16 +6498,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
@@ -6487,16 +6522,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
@@ -6511,16 +6546,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
@@ -6535,16 +6570,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
@@ -6558,14 +6593,14 @@
       <c r="Q28" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6582,11 +6617,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6624,13 +6659,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6638,10 +6673,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6649,10 +6684,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6660,10 +6695,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6671,10 +6706,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6682,10 +6717,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6693,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
